--- a/IN/Task1.xlsx
+++ b/IN/Task1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -396,7 +396,7 @@
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IN/Task1.xlsx
+++ b/IN/Task1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="9" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="13" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -396,7 +396,7 @@
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
